--- a/Evaluation_V2/ClasseurV2.xlsx
+++ b/Evaluation_V2/ClasseurV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Evaluation_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD012C77-9996-403A-8DDB-832E44B0B2AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81BEDF7F-BDCB-44A5-AE72-35499EF2A846}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{B7B9EB1A-3F99-4D80-94F7-87DE04B29059}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DS 5 (2)" sheetId="1" r:id="rId1"/>
     <sheet name="DS 5 (3)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9350,10 +9350,10 @@
   <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46:XFD102"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
